--- a/artfynd/A 1251-2022 artfynd.xlsx
+++ b/artfynd/A 1251-2022 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY4"/>
+  <dimension ref="A1:AY5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1050,6 +1050,125 @@
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>131058100</v>
+      </c>
+      <c r="B5" t="n">
+        <v>57725</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>102621</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sparvuggla</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Glaucidium passerinum</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Österängsån, Dlr</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>509511</v>
+      </c>
+      <c r="R5" t="n">
+        <v>6751072</v>
+      </c>
+      <c r="S5" t="n">
+        <v>36</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Rättvik</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Rättvik</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>09:39</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>09:39</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Per Lif</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Per Lif</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
